--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85550.36893715273</v>
+        <v>85550.36893715276</v>
       </c>
     </row>
     <row r="7">
@@ -26326,7 +26328,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="G2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="H2" t="n">
         <v>37134.75141293493</v>
@@ -26344,16 +26346,16 @@
         <v>37134.75141293493</v>
       </c>
       <c r="M2" t="n">
-        <v>37134.75141293494</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="N2" t="n">
         <v>37134.75141293493</v>
       </c>
       <c r="O2" t="n">
-        <v>37134.75141293494</v>
+        <v>37134.75141293493</v>
       </c>
       <c r="P2" t="n">
-        <v>37134.75141293492</v>
+        <v>37134.75141293493</v>
       </c>
     </row>
     <row r="3">
@@ -26522,7 +26524,7 @@
         <v>-12407.74204975146</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975147</v>
+        <v>-12407.74204975146</v>
       </c>
       <c r="D6" t="n">
         <v>-12407.74204975146</v>
@@ -26534,7 +26536,7 @@
         <v>21219.85795024853</v>
       </c>
       <c r="G6" t="n">
-        <v>21219.85795024852</v>
+        <v>21219.85795024853</v>
       </c>
       <c r="H6" t="n">
         <v>21219.85795024853</v>
@@ -26552,13 +26554,13 @@
         <v>21219.85795024853</v>
       </c>
       <c r="M6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024853</v>
       </c>
       <c r="N6" t="n">
         <v>21219.85795024853</v>
       </c>
       <c r="O6" t="n">
-        <v>21219.85795024854</v>
+        <v>21219.85795024853</v>
       </c>
       <c r="P6" t="n">
         <v>21219.85795024853</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85550.36893715276</v>
+        <v>-40309.88390070225</v>
       </c>
     </row>
     <row r="7">
@@ -26340,7 +26340,7 @@
         <v>37134.75141293493</v>
       </c>
       <c r="K2" t="n">
-        <v>37134.75141293493</v>
+        <v>37134.75141293494</v>
       </c>
       <c r="L2" t="n">
         <v>37134.75141293493</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-27450.76277756274</v>
       </c>
       <c r="C6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-27450.76277756275</v>
       </c>
       <c r="D6" t="n">
-        <v>-12407.74204975146</v>
+        <v>-27450.76277756274</v>
       </c>
       <c r="E6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="F6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="G6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437254</v>
       </c>
       <c r="H6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="I6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437254</v>
       </c>
       <c r="J6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="K6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437262</v>
       </c>
       <c r="L6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="M6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437254</v>
       </c>
       <c r="N6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
       <c r="O6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437254</v>
       </c>
       <c r="P6" t="n">
-        <v>21219.85795024853</v>
+        <v>6176.837222437251</v>
       </c>
     </row>
   </sheetData>
